--- a/data-raw/NutrientData/nutrientNames_Units.xlsx
+++ b/data-raw/NutrientData/nutrientNames_Units.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="26260" windowHeight="10640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="dt.nutrientNames_Units" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>Fatty acids, total trans</t>
   </si>
   <si>
-    <t>phytate</t>
-  </si>
-  <si>
     <t>thiamin cooking retention</t>
   </si>
   <si>
@@ -323,40 +320,43 @@
     <t>µg</t>
   </si>
   <si>
+    <t>Ref_Desc</t>
+  </si>
+  <si>
+    <t>retentioncode_aus</t>
+  </si>
+  <si>
+    <t>refuse description</t>
+  </si>
+  <si>
+    <t>IMPACT_code</t>
+  </si>
+  <si>
+    <t>usda_code</t>
+  </si>
+  <si>
+    <t>retention description</t>
+  </si>
+  <si>
+    <t>RetnDesc</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>USDA code</t>
+  </si>
+  <si>
+    <t>USDA long desc.</t>
+  </si>
+  <si>
     <t>Long_Desc</t>
   </si>
   <si>
-    <t>Ref_Desc</t>
-  </si>
-  <si>
-    <t>retentioncode_aus</t>
-  </si>
-  <si>
-    <t>retention code</t>
-  </si>
-  <si>
-    <t>refuse description</t>
-  </si>
-  <si>
-    <t>long description</t>
-  </si>
-  <si>
-    <t>IMPACT_code</t>
-  </si>
-  <si>
-    <t>usda_code</t>
-  </si>
-  <si>
-    <t>retention description</t>
-  </si>
-  <si>
-    <t>USDA code, description</t>
-  </si>
-  <si>
-    <t>RetnDesc</t>
-  </si>
-  <si>
-    <t>%</t>
+    <t>Phytate</t>
+  </si>
+  <si>
+    <t>Retention code</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,16 +379,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -396,13 +422,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,66 +468,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:BA3" totalsRowShown="0">
-  <autoFilter ref="C1:BA3"/>
-  <tableColumns count="51">
-    <tableColumn id="1" name="edible_share"/>
-    <tableColumn id="2" name="IMPACT_conversion"/>
-    <tableColumn id="3" name="energy_kcal"/>
-    <tableColumn id="4" name="protein_g"/>
-    <tableColumn id="5" name="fat_g"/>
-    <tableColumn id="6" name="carbohydrate_g"/>
-    <tableColumn id="7" name="totalfiber_g"/>
-    <tableColumn id="8" name="sugar_g"/>
-    <tableColumn id="9" name="calcium_mg"/>
-    <tableColumn id="10" name="iron_mg"/>
-    <tableColumn id="11" name="magnesium_mg"/>
-    <tableColumn id="12" name="phosphorus_mg"/>
-    <tableColumn id="13" name="potassium_g"/>
-    <tableColumn id="14" name="zinc_mg"/>
-    <tableColumn id="15" name="vit_c_mg"/>
-    <tableColumn id="16" name="thiamin_mg"/>
-    <tableColumn id="17" name="riboflavin_mg"/>
-    <tableColumn id="18" name="niacin_mg"/>
-    <tableColumn id="19" name="vit_b6_mg"/>
-    <tableColumn id="20" name="folate_µg"/>
-    <tableColumn id="21" name="vit_b12_µg"/>
-    <tableColumn id="22" name="vit_a_rae_µg"/>
-    <tableColumn id="23" name="vit_e_mg"/>
-    <tableColumn id="24" name="vit_d_µg"/>
-    <tableColumn id="25" name="vit_k_µg"/>
-    <tableColumn id="26" name="ft_acds_tot_sat_g"/>
-    <tableColumn id="27" name="ft_acds_mono_unsat_g"/>
-    <tableColumn id="28" name="ft_acds_plyunst_g"/>
-    <tableColumn id="29" name="cholesterol_mg"/>
-    <tableColumn id="30" name="caffeine_mg"/>
-    <tableColumn id="31" name="ft_acds_tot_trans_g"/>
-    <tableColumn id="32" name="phytate_mg"/>
-    <tableColumn id="51" name="RetnDesc"/>
-    <tableColumn id="33" name="thiamin_mg_cr"/>
-    <tableColumn id="34" name="vit_b12_µg_cr"/>
-    <tableColumn id="35" name="riboflavin_mg_cr"/>
-    <tableColumn id="36" name="niacin_mg_cr"/>
-    <tableColumn id="37" name="vit_b6_mg_cr"/>
-    <tableColumn id="38" name="calcium_mg_cr"/>
-    <tableColumn id="39" name="iron_mg_cr"/>
-    <tableColumn id="40" name="folate_µg_cr"/>
-    <tableColumn id="41" name="potassium_g_cr"/>
-    <tableColumn id="42" name="magnesium_mg_cr"/>
-    <tableColumn id="43" name="phosphorus_mg_cr"/>
-    <tableColumn id="44" name="vit_a_rae_µg_cr"/>
-    <tableColumn id="45" name="vit_c_mg_cr"/>
-    <tableColumn id="46" name="vit_e_mg_cr"/>
-    <tableColumn id="47" name="zinc_mg_cr"/>
-    <tableColumn id="48" name="Long_Desc"/>
-    <tableColumn id="49" name="Ref_Desc"/>
-    <tableColumn id="50" name="retentioncode_aus"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,518 +751,515 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3:AX3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="30.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="28.6640625" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" customWidth="1"/>
-    <col min="28" max="28" width="28.6640625" customWidth="1"/>
-    <col min="29" max="30" width="34.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" customWidth="1"/>
-    <col min="33" max="33" width="24.6640625" customWidth="1"/>
-    <col min="34" max="35" width="10.6640625" customWidth="1"/>
-    <col min="36" max="36" width="25.6640625" customWidth="1"/>
-    <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="38" width="28.6640625" customWidth="1"/>
-    <col min="39" max="39" width="24.6640625" customWidth="1"/>
-    <col min="40" max="40" width="28.6640625" customWidth="1"/>
-    <col min="41" max="41" width="25.6640625" customWidth="1"/>
-    <col min="42" max="42" width="22.6640625" customWidth="1"/>
-    <col min="43" max="43" width="25.6640625" customWidth="1"/>
-    <col min="44" max="45" width="27.6640625" customWidth="1"/>
-    <col min="46" max="46" width="29.6640625" customWidth="1"/>
-    <col min="47" max="47" width="31.6640625" customWidth="1"/>
-    <col min="48" max="49" width="28.6640625" customWidth="1"/>
-    <col min="50" max="50" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="28.6640625" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" customWidth="1"/>
+    <col min="29" max="30" width="28.6640625" customWidth="1"/>
+    <col min="31" max="33" width="34.6640625" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" customWidth="1"/>
+    <col min="35" max="35" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.6640625" customWidth="1"/>
+    <col min="37" max="38" width="10.6640625" customWidth="1"/>
+    <col min="39" max="39" width="25.6640625" customWidth="1"/>
+    <col min="40" max="40" width="26.6640625" customWidth="1"/>
+    <col min="41" max="41" width="28.6640625" customWidth="1"/>
+    <col min="42" max="42" width="24.6640625" customWidth="1"/>
+    <col min="43" max="44" width="28.6640625" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" customWidth="1"/>
+    <col min="46" max="46" width="22.6640625" customWidth="1"/>
+    <col min="47" max="47" width="25.6640625" customWidth="1"/>
+    <col min="48" max="49" width="27.6640625" customWidth="1"/>
+    <col min="50" max="50" width="29.6640625" customWidth="1"/>
+    <col min="51" max="51" width="31.6640625" customWidth="1"/>
+    <col min="52" max="53" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>45</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="AK2" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
         <v>94</v>
       </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" t="s">
-        <v>97</v>
       </c>
       <c r="Y3" t="s">
         <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH3" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>95</v>
       </c>
       <c r="AJ3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AV3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AW3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AX3" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/data-raw/NutrientData/nutrientNames_Units.xlsx
+++ b/data-raw/NutrientData/nutrientNames_Units.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>edible_share</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Retention code</t>
+  </si>
+  <si>
+    <t>phytate_source</t>
+  </si>
+  <si>
+    <t>Source of phytate info</t>
   </si>
 </sst>
 </file>
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,47 +767,47 @@
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="28.6640625" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="28" width="25.6640625" customWidth="1"/>
-    <col min="29" max="30" width="28.6640625" customWidth="1"/>
-    <col min="31" max="33" width="34.6640625" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" customWidth="1"/>
-    <col min="35" max="35" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.6640625" customWidth="1"/>
-    <col min="37" max="38" width="10.6640625" customWidth="1"/>
-    <col min="39" max="39" width="25.6640625" customWidth="1"/>
-    <col min="40" max="40" width="26.6640625" customWidth="1"/>
-    <col min="41" max="41" width="28.6640625" customWidth="1"/>
-    <col min="42" max="42" width="24.6640625" customWidth="1"/>
-    <col min="43" max="44" width="28.6640625" customWidth="1"/>
-    <col min="45" max="45" width="25.6640625" customWidth="1"/>
-    <col min="46" max="46" width="22.6640625" customWidth="1"/>
-    <col min="47" max="47" width="25.6640625" customWidth="1"/>
-    <col min="48" max="49" width="27.6640625" customWidth="1"/>
-    <col min="50" max="50" width="29.6640625" customWidth="1"/>
-    <col min="51" max="51" width="31.6640625" customWidth="1"/>
-    <col min="52" max="53" width="28.6640625" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="28.6640625" customWidth="1"/>
+    <col min="28" max="28" width="19.6640625" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" customWidth="1"/>
+    <col min="30" max="31" width="28.6640625" customWidth="1"/>
+    <col min="32" max="34" width="34.6640625" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.6640625" customWidth="1"/>
+    <col min="38" max="39" width="10.6640625" customWidth="1"/>
+    <col min="40" max="40" width="25.6640625" customWidth="1"/>
+    <col min="41" max="41" width="26.6640625" customWidth="1"/>
+    <col min="42" max="42" width="28.6640625" customWidth="1"/>
+    <col min="43" max="43" width="24.6640625" customWidth="1"/>
+    <col min="44" max="45" width="28.6640625" customWidth="1"/>
+    <col min="46" max="46" width="25.6640625" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" customWidth="1"/>
+    <col min="48" max="48" width="25.6640625" customWidth="1"/>
+    <col min="49" max="50" width="27.6640625" customWidth="1"/>
+    <col min="51" max="51" width="29.6640625" customWidth="1"/>
+    <col min="52" max="52" width="31.6640625" customWidth="1"/>
+    <col min="53" max="54" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -823,146 +829,149 @@
       <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>33</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -976,146 +985,149 @@
       <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>92</v>
       </c>
@@ -1125,9 +1137,6 @@
       <c r="G3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
       <c r="I3" t="s">
         <v>94</v>
       </c>
@@ -1137,12 +1146,12 @@
       <c r="K3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M3" t="s">
-        <v>95</v>
-      </c>
       <c r="N3" t="s">
         <v>95</v>
       </c>
@@ -1153,11 +1162,11 @@
         <v>95</v>
       </c>
       <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
         <v>94</v>
       </c>
-      <c r="R3" t="s">
-        <v>95</v>
-      </c>
       <c r="S3" t="s">
         <v>95</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>95</v>
       </c>
       <c r="X3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="s">
         <v>96</v>
@@ -1183,16 +1192,16 @@
         <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
         <v>96</v>
       </c>
       <c r="AD3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="s">
         <v>94</v>
@@ -1207,13 +1216,13 @@
         <v>94</v>
       </c>
       <c r="AI3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ3" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" t="s">
-        <v>104</v>
+      <c r="AK3" t="s">
+        <v>95</v>
       </c>
       <c r="AN3" t="s">
         <v>104</v>
@@ -1255,6 +1264,9 @@
         <v>104</v>
       </c>
       <c r="BA3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB3" t="s">
         <v>104</v>
       </c>
     </row>

--- a/data-raw/NutrientData/nutrientNames_Units.xlsx
+++ b/data-raw/NutrientData/nutrientNames_Units.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>edible_share</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Source of phytate info</t>
+  </si>
+  <si>
+    <t>ethanol_g</t>
+  </si>
+  <si>
+    <t>ethanol</t>
   </si>
 </sst>
 </file>
@@ -755,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,7 +813,7 @@
     <col min="53" max="54" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -970,8 +976,11 @@
       <c r="BB1" t="s">
         <v>45</v>
       </c>
+      <c r="BC1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -1126,8 +1135,11 @@
       <c r="BB2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="BC2" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>92</v>
       </c>
@@ -1268,6 +1280,9 @@
       </c>
       <c r="BB3" t="s">
         <v>104</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
